--- a/results/reports/Annotations.xlsx
+++ b/results/reports/Annotations.xlsx
@@ -8,24 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ituniversity-my.sharepoint.com/personal/markk_itu_dk/Documents/DS Project/PreliminaryProjectInDataScience2026/results/reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="11_F25DC773A252ABDACC10489E011E5EF45ADE58EB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A9E5D9B9-D50E-435F-A24E-B8ACBF739453}"/>
+  <xr:revisionPtr revIDLastSave="314" documentId="11_F25DC773A252ABDACC10489E011E5EF45ADE58EB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{141D407A-CA56-455F-9AF0-6853FC51E971}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="22308" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19110" yWindow="10400" windowWidth="19380" windowHeight="10490" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="127">
   <si>
     <t>Picture number</t>
   </si>
@@ -52,6 +63,360 @@
   </si>
   <si>
     <t>Ruben Hair</t>
+  </si>
+  <si>
+    <t>PAT_26_37_865.png</t>
+  </si>
+  <si>
+    <t>PAT_38_54_234.png</t>
+  </si>
+  <si>
+    <t>PAT_38_1003_68.png</t>
+  </si>
+  <si>
+    <t>PAT_40_56_160.png</t>
+  </si>
+  <si>
+    <t>PAT_55_84_506.png</t>
+  </si>
+  <si>
+    <t>PAT_75_113_647.png</t>
+  </si>
+  <si>
+    <t>PAT_85_129_225.png</t>
+  </si>
+  <si>
+    <t>PAT_91_356_273.png</t>
+  </si>
+  <si>
+    <t>PAT_115_177_575.png</t>
+  </si>
+  <si>
+    <t>PAT_161_250_197.png</t>
+  </si>
+  <si>
+    <t>PAT_168_262_74.png</t>
+  </si>
+  <si>
+    <t>PAT_171_265_757.png</t>
+  </si>
+  <si>
+    <t>PAT_176_273_423.png</t>
+  </si>
+  <si>
+    <t>PAT_187_287_482.png</t>
+  </si>
+  <si>
+    <t>PAT_188_289_908.png</t>
+  </si>
+  <si>
+    <t>PAT_191_293_314.png</t>
+  </si>
+  <si>
+    <t>PAT_191_294_629.png</t>
+  </si>
+  <si>
+    <t>PAT_197_301_449.png</t>
+  </si>
+  <si>
+    <t>PAT_198_302_44.png</t>
+  </si>
+  <si>
+    <t>PAT_207_3951_140.png</t>
+  </si>
+  <si>
+    <t>PAT_228_348_535.png</t>
+  </si>
+  <si>
+    <t>PAT_238_364_387.png</t>
+  </si>
+  <si>
+    <t>PAT_247_1294_292.png</t>
+  </si>
+  <si>
+    <t>PAT_260_400_842.png</t>
+  </si>
+  <si>
+    <t>PAT_270_417_728.png</t>
+  </si>
+  <si>
+    <t>PAT_286_1459_666.png</t>
+  </si>
+  <si>
+    <t>PAT_303_652_943.png</t>
+  </si>
+  <si>
+    <t>PAT_304_4186_458.png</t>
+  </si>
+  <si>
+    <t>PAT_305_655_30.png</t>
+  </si>
+  <si>
+    <t>PAT_309_662_737.png</t>
+  </si>
+  <si>
+    <t>PAT_321_682_236.png</t>
+  </si>
+  <si>
+    <t>PAT_325_1506_440.png</t>
+  </si>
+  <si>
+    <t>PAT_340_714_68.png</t>
+  </si>
+  <si>
+    <t>PAT_358_738_837.png</t>
+  </si>
+  <si>
+    <t>PAT_361_743_82.png</t>
+  </si>
+  <si>
+    <t>PAT_380_1540_959.png</t>
+  </si>
+  <si>
+    <t>PAT_397_798_482.png</t>
+  </si>
+  <si>
+    <t>PAT_441_861_542.png</t>
+  </si>
+  <si>
+    <t>PAT_458_891_709.png</t>
+  </si>
+  <si>
+    <t>PAT_460_894_242.png</t>
+  </si>
+  <si>
+    <t>PAT_466_903_893.png</t>
+  </si>
+  <si>
+    <t>PAT_490_933_17.png</t>
+  </si>
+  <si>
+    <t>PAT_503_950_368.png</t>
+  </si>
+  <si>
+    <t>PAT_513_964_447.png</t>
+  </si>
+  <si>
+    <t>PAT_517_972_845.png</t>
+  </si>
+  <si>
+    <t>PAT_536_3227_442.png</t>
+  </si>
+  <si>
+    <t>PAT_544_3299_671.png</t>
+  </si>
+  <si>
+    <t>PAT_585_1130_552.png</t>
+  </si>
+  <si>
+    <t>PAT_609_1159_932.png</t>
+  </si>
+  <si>
+    <t>PAT_629_1192_362.png</t>
+  </si>
+  <si>
+    <t>PAT_633_1199_745.png</t>
+  </si>
+  <si>
+    <t>PAT_657_1247_455.png</t>
+  </si>
+  <si>
+    <t>PAT_662_1251_43.png</t>
+  </si>
+  <si>
+    <t>PAT_678_1298_396.png</t>
+  </si>
+  <si>
+    <t>PAT_691_1311_2.png</t>
+  </si>
+  <si>
+    <t>PAT_716_1345_460.png</t>
+  </si>
+  <si>
+    <t>PAT_719_1361_234.png</t>
+  </si>
+  <si>
+    <t>PAT_735_1391_683.png</t>
+  </si>
+  <si>
+    <t>PAT_739_1398_331.png</t>
+  </si>
+  <si>
+    <t>PAT_756_1496_599.png</t>
+  </si>
+  <si>
+    <t>PAT_760_1456_878.png</t>
+  </si>
+  <si>
+    <t>PAT_771_1489_70.png</t>
+  </si>
+  <si>
+    <t>PAT_785_1479_108.png</t>
+  </si>
+  <si>
+    <t>PAT_788_1503_168.png</t>
+  </si>
+  <si>
+    <t>PAT_796_1509_459.png</t>
+  </si>
+  <si>
+    <t>PAT_815_1534_411.png</t>
+  </si>
+  <si>
+    <t>PAT_815_1536_963.png</t>
+  </si>
+  <si>
+    <t>PAT_822_1551_642.png</t>
+  </si>
+  <si>
+    <t>PAT_835_1577_938.png</t>
+  </si>
+  <si>
+    <t>PAT_839_1591_204.png</t>
+  </si>
+  <si>
+    <t>PAT_859_1638_598.png</t>
+  </si>
+  <si>
+    <t>PAT_864_1645_626.png</t>
+  </si>
+  <si>
+    <t>PAT_875_1668_588.png</t>
+  </si>
+  <si>
+    <t>PAT_923_1753_706.png</t>
+  </si>
+  <si>
+    <t>PAT_938_1789_693.png</t>
+  </si>
+  <si>
+    <t>PAT_986_1855_702.png</t>
+  </si>
+  <si>
+    <t>PAT_1021_112_40.png</t>
+  </si>
+  <si>
+    <t>PAT_1088_373_781.png</t>
+  </si>
+  <si>
+    <t>PAT_1148_542_708.png</t>
+  </si>
+  <si>
+    <t>PAT_1202_722_827.png</t>
+  </si>
+  <si>
+    <t>PAT_1241_824_82.png</t>
+  </si>
+  <si>
+    <t>PAT_1309_1096_393.png</t>
+  </si>
+  <si>
+    <t>PAT_1316_1114_517.png</t>
+  </si>
+  <si>
+    <t>PAT_1374_1286_494.png</t>
+  </si>
+  <si>
+    <t>PAT_1379_1300_924.png</t>
+  </si>
+  <si>
+    <t>PAT_1392_1352_778.png</t>
+  </si>
+  <si>
+    <t>PAT_1393_1355_270.png</t>
+  </si>
+  <si>
+    <t>PAT_1408_1404_929.png</t>
+  </si>
+  <si>
+    <t>PAT_1427_1485_15.png</t>
+  </si>
+  <si>
+    <t>PAT_1451_1561_100.png</t>
+  </si>
+  <si>
+    <t>PAT_1468_3656_337.png</t>
+  </si>
+  <si>
+    <t>PAT_1521_1778_763.png</t>
+  </si>
+  <si>
+    <t>PAT_1549_1882_230.png</t>
+  </si>
+  <si>
+    <t>PAT_1552_1895_190.png</t>
+  </si>
+  <si>
+    <t>PAT_1585_2619_396.png</t>
+  </si>
+  <si>
+    <t>PAT_1619_2774_616.png</t>
+  </si>
+  <si>
+    <t>PAT_1638_2878_536.png</t>
+  </si>
+  <si>
+    <t>PAT_1661_2956_357.png</t>
+  </si>
+  <si>
+    <t>PAT_1671_3008_622.png</t>
+  </si>
+  <si>
+    <t>PAT_1707_3148_835.png</t>
+  </si>
+  <si>
+    <t>PAT_1728_3234_299.png</t>
+  </si>
+  <si>
+    <t>PAT_1736_3246_166.png</t>
+  </si>
+  <si>
+    <t>PAT_1753_3305_385.png</t>
+  </si>
+  <si>
+    <t>PAT_1769_3342_63.png</t>
+  </si>
+  <si>
+    <t>PAT_1787_3421_516.png</t>
+  </si>
+  <si>
+    <t>PAT_1903_3791_14.png</t>
+  </si>
+  <si>
+    <t>PAT_1931_3879_727.png</t>
+  </si>
+  <si>
+    <t>PAT_1944_3921_281.png</t>
+  </si>
+  <si>
+    <t>PAT_1946_3924_627.png</t>
+  </si>
+  <si>
+    <t>PAT_1951_3934_98.png</t>
+  </si>
+  <si>
+    <t>PAT_1984_4038_265.png</t>
+  </si>
+  <si>
+    <t>PAT_2021_4180_381.png</t>
+  </si>
+  <si>
+    <t>PAT_2039_4290_273.png</t>
+  </si>
+  <si>
+    <t>PAT_2041_4298_408.png</t>
+  </si>
+  <si>
+    <t>PAT_2088_4524_465.png</t>
+  </si>
+  <si>
+    <t>PAT_2109_4598_112.png</t>
+  </si>
+  <si>
+    <t>PAT_2154_4783_625.png</t>
+  </si>
+  <si>
+    <t>Picture name</t>
   </si>
 </sst>
 </file>
@@ -104,6 +469,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -369,626 +738,2044 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I118"/>
+  <dimension ref="A1:Q118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="D118" sqref="D118"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="14.7265625" customWidth="1"/>
+    <col min="2" max="2" width="21.1796875" customWidth="1"/>
+    <col min="3" max="3" width="9.54296875" customWidth="1"/>
+    <col min="4" max="4" width="10.6328125" customWidth="1"/>
+    <col min="5" max="5" width="10.36328125" customWidth="1"/>
+    <col min="6" max="6" width="8.26953125" customWidth="1"/>
+    <col min="7" max="7" width="7.6328125" customWidth="1"/>
+    <col min="8" max="8" width="9.90625" customWidth="1"/>
+    <col min="9" max="9" width="9.54296875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>126</v>
       </c>
       <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="Q1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>42</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>43</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>44</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>45</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>46</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>48</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>49</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
+        <v>50</v>
+      </c>
+      <c r="C43">
+        <v>2</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>43</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
+        <v>51</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>44</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
+        <v>52</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>45</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B46" t="s">
+        <v>53</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>46</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
+        <v>54</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>47</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B48" t="s">
+        <v>55</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>48</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B49" t="s">
+        <v>56</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>49</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B50" t="s">
+        <v>57</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>50</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B51" t="s">
+        <v>58</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>51</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B52" t="s">
+        <v>59</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>52</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B53" t="s">
+        <v>60</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>53</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B54" t="s">
+        <v>61</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>54</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B55" t="s">
+        <v>62</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>55</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B56" t="s">
+        <v>63</v>
+      </c>
+      <c r="C56">
+        <v>2</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>56</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B57" t="s">
+        <v>64</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>57</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B58" t="s">
+        <v>65</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>58</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B59" t="s">
+        <v>66</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>59</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B60" t="s">
+        <v>67</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>60</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B61" t="s">
+        <v>68</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>61</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B62" t="s">
+        <v>69</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>62</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B63" t="s">
+        <v>70</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>63</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B64" t="s">
+        <v>71</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>64</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B65" t="s">
+        <v>72</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>65</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B66" t="s">
+        <v>73</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>66</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B67" t="s">
+        <v>74</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>67</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B68" t="s">
+        <v>75</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>68</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B69" t="s">
+        <v>76</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>69</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B70" t="s">
+        <v>77</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>70</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B71" t="s">
+        <v>78</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>71</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B72" t="s">
+        <v>79</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>72</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B73" t="s">
+        <v>80</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>73</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B74" t="s">
+        <v>81</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>74</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B75" t="s">
+        <v>82</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>75</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B76" t="s">
+        <v>83</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="D76">
+        <v>1</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>76</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B77" t="s">
+        <v>84</v>
+      </c>
+      <c r="C77">
+        <v>2</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>77</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B78" t="s">
+        <v>85</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>78</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B79" t="s">
+        <v>86</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>79</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B80" t="s">
+        <v>87</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>80</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B81" t="s">
+        <v>88</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="Q81" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>81</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B82" t="s">
+        <v>89</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="Q82" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>82</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B83" t="s">
+        <v>90</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+      <c r="D83">
+        <v>1</v>
+      </c>
+      <c r="Q83" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>83</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B84" t="s">
+        <v>91</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+      <c r="D84">
+        <v>1</v>
+      </c>
+      <c r="Q84" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>84</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B85" t="s">
+        <v>92</v>
+      </c>
+      <c r="C85">
+        <v>0</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="Q85" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>85</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B86" t="s">
+        <v>93</v>
+      </c>
+      <c r="C86">
+        <v>1</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="Q86" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>86</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B87" t="s">
+        <v>94</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="Q87" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>87</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B88" t="s">
+        <v>95</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="Q88" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>88</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B89" t="s">
+        <v>96</v>
+      </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="Q89" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>89</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B90" t="s">
+        <v>97</v>
+      </c>
+      <c r="C90">
+        <v>1</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="Q90" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>90</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B91" t="s">
+        <v>98</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="Q91" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>91</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B92" t="s">
+        <v>99</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
+      <c r="D92">
+        <v>1</v>
+      </c>
+      <c r="Q92" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>92</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B93" t="s">
+        <v>100</v>
+      </c>
+      <c r="C93">
+        <v>0</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="Q93" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>93</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B94" t="s">
+        <v>101</v>
+      </c>
+      <c r="C94">
+        <v>2</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="Q94" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>94</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B95" t="s">
+        <v>102</v>
+      </c>
+      <c r="C95">
+        <v>2</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="Q95" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>95</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B96" t="s">
+        <v>103</v>
+      </c>
+      <c r="C96">
+        <v>1</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="Q96" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>96</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B97" t="s">
+        <v>104</v>
+      </c>
+      <c r="C97">
+        <v>0</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="Q97" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>97</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B98" t="s">
+        <v>105</v>
+      </c>
+      <c r="C98">
+        <v>1</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="Q98" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>98</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B99" t="s">
+        <v>106</v>
+      </c>
+      <c r="C99">
+        <v>0</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="Q99" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>99</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B100" t="s">
+        <v>107</v>
+      </c>
+      <c r="C100">
+        <v>2</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="Q100" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>100</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B101" t="s">
+        <v>108</v>
+      </c>
+      <c r="C101">
+        <v>1</v>
+      </c>
+      <c r="D101">
+        <v>0</v>
+      </c>
+      <c r="Q101" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>101</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B102" t="s">
+        <v>109</v>
+      </c>
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="Q102" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>102</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B103" t="s">
+        <v>110</v>
+      </c>
+      <c r="C103">
+        <v>1</v>
+      </c>
+      <c r="D103">
+        <v>1</v>
+      </c>
+      <c r="Q103" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>103</v>
       </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B104" t="s">
+        <v>111</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="Q104" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>104</v>
       </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B105" t="s">
+        <v>112</v>
+      </c>
+      <c r="C105">
+        <v>1</v>
+      </c>
+      <c r="D105">
+        <v>0</v>
+      </c>
+      <c r="Q105" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="106" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>105</v>
       </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B106" t="s">
+        <v>113</v>
+      </c>
+      <c r="C106">
+        <v>1</v>
+      </c>
+      <c r="D106">
+        <v>0</v>
+      </c>
+      <c r="Q106" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>106</v>
       </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B107" t="s">
+        <v>114</v>
+      </c>
+      <c r="C107">
+        <v>1</v>
+      </c>
+      <c r="D107">
+        <v>0</v>
+      </c>
+      <c r="Q107" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="108" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>107</v>
       </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B108" t="s">
+        <v>115</v>
+      </c>
+      <c r="C108">
+        <v>1</v>
+      </c>
+      <c r="D108">
+        <v>0</v>
+      </c>
+      <c r="Q108" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="109" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>108</v>
       </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B109" t="s">
+        <v>116</v>
+      </c>
+      <c r="C109">
+        <v>0</v>
+      </c>
+      <c r="D109">
+        <v>0</v>
+      </c>
+      <c r="Q109" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="110" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>109</v>
       </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B110" t="s">
+        <v>117</v>
+      </c>
+      <c r="C110">
+        <v>1</v>
+      </c>
+      <c r="D110">
+        <v>0</v>
+      </c>
+      <c r="Q110" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="111" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>110</v>
       </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B111" t="s">
+        <v>118</v>
+      </c>
+      <c r="C111">
+        <v>0</v>
+      </c>
+      <c r="D111">
+        <v>1</v>
+      </c>
+      <c r="Q111" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="112" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>111</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B112" t="s">
+        <v>119</v>
+      </c>
+      <c r="C112">
+        <v>0</v>
+      </c>
+      <c r="D112">
+        <v>0</v>
+      </c>
+      <c r="Q112" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="113" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>112</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B113" t="s">
+        <v>120</v>
+      </c>
+      <c r="C113">
+        <v>2</v>
+      </c>
+      <c r="D113">
+        <v>1</v>
+      </c>
+      <c r="Q113" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="114" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>113</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B114" t="s">
+        <v>121</v>
+      </c>
+      <c r="C114">
+        <v>0</v>
+      </c>
+      <c r="D114">
+        <v>0</v>
+      </c>
+      <c r="Q114" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="115" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>114</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B115" t="s">
+        <v>122</v>
+      </c>
+      <c r="C115">
+        <v>1</v>
+      </c>
+      <c r="D115">
+        <v>0</v>
+      </c>
+      <c r="Q115" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="116" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>115</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B116" t="s">
+        <v>123</v>
+      </c>
+      <c r="C116">
+        <v>0</v>
+      </c>
+      <c r="D116">
+        <v>0</v>
+      </c>
+      <c r="Q116" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="117" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>116</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B117" t="s">
+        <v>124</v>
+      </c>
+      <c r="C117">
+        <v>2</v>
+      </c>
+      <c r="D117">
+        <v>0</v>
+      </c>
+      <c r="Q117" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="118" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>117</v>
+      </c>
+      <c r="B118" t="s">
+        <v>125</v>
+      </c>
+      <c r="C118">
+        <v>1</v>
+      </c>
+      <c r="D118">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/results/reports/Annotations.xlsx
+++ b/results/reports/Annotations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ituniversity-my.sharepoint.com/personal/markk_itu_dk/Documents/DS Project/PreliminaryProjectInDataScience2026/results/reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="314" documentId="11_F25DC773A252ABDACC10489E011E5EF45ADE58EB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{141D407A-CA56-455F-9AF0-6853FC51E971}"/>
+  <xr:revisionPtr revIDLastSave="315" documentId="11_F25DC773A252ABDACC10489E011E5EF45ADE58EB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CB2D404B-5710-499E-AC8D-4E8C0CBCA0CF}"/>
   <bookViews>
-    <workbookView xWindow="19110" yWindow="10400" windowWidth="19380" windowHeight="10490" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="5430" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="127">
   <si>
     <t>Picture number</t>
   </si>
@@ -738,10 +738,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q118"/>
+  <dimension ref="A1:J118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="D118" sqref="D118"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1:Q1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -757,7 +757,7 @@
     <col min="9" max="9" width="9.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -788,11 +788,8 @@
       <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -805,11 +802,8 @@
       <c r="D2">
         <v>0</v>
       </c>
-      <c r="Q2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -822,11 +816,8 @@
       <c r="D3">
         <v>1</v>
       </c>
-      <c r="Q3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -839,11 +830,8 @@
       <c r="D4">
         <v>1</v>
       </c>
-      <c r="Q4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -856,11 +844,8 @@
       <c r="D5">
         <v>1</v>
       </c>
-      <c r="Q5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -873,11 +858,8 @@
       <c r="D6">
         <v>0</v>
       </c>
-      <c r="Q6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -890,11 +872,8 @@
       <c r="D7">
         <v>0</v>
       </c>
-      <c r="Q7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -907,11 +886,8 @@
       <c r="D8">
         <v>0</v>
       </c>
-      <c r="Q8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -924,11 +900,8 @@
       <c r="D9">
         <v>1</v>
       </c>
-      <c r="Q9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -941,11 +914,8 @@
       <c r="D10">
         <v>0</v>
       </c>
-      <c r="Q10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -958,11 +928,8 @@
       <c r="D11">
         <v>1</v>
       </c>
-      <c r="Q11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -975,11 +942,8 @@
       <c r="D12">
         <v>0</v>
       </c>
-      <c r="Q12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -992,11 +956,8 @@
       <c r="D13">
         <v>0</v>
       </c>
-      <c r="Q13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1009,11 +970,8 @@
       <c r="D14">
         <v>0</v>
       </c>
-      <c r="Q14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1026,11 +984,8 @@
       <c r="D15">
         <v>0</v>
       </c>
-      <c r="Q15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1043,11 +998,8 @@
       <c r="D16">
         <v>0</v>
       </c>
-      <c r="Q16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1060,11 +1012,8 @@
       <c r="D17">
         <v>0</v>
       </c>
-      <c r="Q17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1077,11 +1026,8 @@
       <c r="D18">
         <v>1</v>
       </c>
-      <c r="Q18" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1094,11 +1040,8 @@
       <c r="D19">
         <v>0</v>
       </c>
-      <c r="Q19" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1111,11 +1054,8 @@
       <c r="D20">
         <v>0</v>
       </c>
-      <c r="Q20" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1128,11 +1068,8 @@
       <c r="D21">
         <v>1</v>
       </c>
-      <c r="Q21" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1145,11 +1082,8 @@
       <c r="D22">
         <v>0</v>
       </c>
-      <c r="Q22" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1162,11 +1096,8 @@
       <c r="D23">
         <v>1</v>
       </c>
-      <c r="Q23" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1179,11 +1110,8 @@
       <c r="D24">
         <v>1</v>
       </c>
-      <c r="Q24" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1196,11 +1124,8 @@
       <c r="D25">
         <v>1</v>
       </c>
-      <c r="Q25" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1213,11 +1138,8 @@
       <c r="D26">
         <v>0</v>
       </c>
-      <c r="Q26" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1230,11 +1152,8 @@
       <c r="D27">
         <v>0</v>
       </c>
-      <c r="Q27" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1247,11 +1166,8 @@
       <c r="D28">
         <v>0</v>
       </c>
-      <c r="Q28" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1264,11 +1180,8 @@
       <c r="D29">
         <v>0</v>
       </c>
-      <c r="Q29" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1281,11 +1194,8 @@
       <c r="D30">
         <v>0</v>
       </c>
-      <c r="Q30" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1298,11 +1208,8 @@
       <c r="D31">
         <v>1</v>
       </c>
-      <c r="Q31" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1315,11 +1222,8 @@
       <c r="D32">
         <v>0</v>
       </c>
-      <c r="Q32" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1332,11 +1236,8 @@
       <c r="D33">
         <v>0</v>
       </c>
-      <c r="Q33" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1349,11 +1250,8 @@
       <c r="D34">
         <v>0</v>
       </c>
-      <c r="Q34" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1366,11 +1264,8 @@
       <c r="D35">
         <v>0</v>
       </c>
-      <c r="Q35" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1383,11 +1278,8 @@
       <c r="D36">
         <v>0</v>
       </c>
-      <c r="Q36" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1400,11 +1292,8 @@
       <c r="D37">
         <v>0</v>
       </c>
-      <c r="Q37" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1417,11 +1306,8 @@
       <c r="D38">
         <v>1</v>
       </c>
-      <c r="Q38" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1434,11 +1320,8 @@
       <c r="D39">
         <v>0</v>
       </c>
-      <c r="Q39" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1451,11 +1334,8 @@
       <c r="D40">
         <v>0</v>
       </c>
-      <c r="Q40" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1468,11 +1348,8 @@
       <c r="D41">
         <v>1</v>
       </c>
-      <c r="Q41" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1485,11 +1362,8 @@
       <c r="D42">
         <v>0</v>
       </c>
-      <c r="Q42" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1502,11 +1376,8 @@
       <c r="D43">
         <v>0</v>
       </c>
-      <c r="Q43" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1519,11 +1390,8 @@
       <c r="D44">
         <v>0</v>
       </c>
-      <c r="Q44" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1536,11 +1404,8 @@
       <c r="D45">
         <v>0</v>
       </c>
-      <c r="Q45" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1553,11 +1418,8 @@
       <c r="D46">
         <v>1</v>
       </c>
-      <c r="Q46" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1570,11 +1432,8 @@
       <c r="D47">
         <v>1</v>
       </c>
-      <c r="Q47" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1587,11 +1446,8 @@
       <c r="D48">
         <v>0</v>
       </c>
-      <c r="Q48" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1604,11 +1460,8 @@
       <c r="D49">
         <v>0</v>
       </c>
-      <c r="Q49" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>49</v>
       </c>
@@ -1621,11 +1474,8 @@
       <c r="D50">
         <v>0</v>
       </c>
-      <c r="Q50" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>50</v>
       </c>
@@ -1638,11 +1488,8 @@
       <c r="D51">
         <v>0</v>
       </c>
-      <c r="Q51" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>51</v>
       </c>
@@ -1655,11 +1502,8 @@
       <c r="D52">
         <v>0</v>
       </c>
-      <c r="Q52" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>52</v>
       </c>
@@ -1672,11 +1516,8 @@
       <c r="D53">
         <v>1</v>
       </c>
-      <c r="Q53" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>53</v>
       </c>
@@ -1689,11 +1530,8 @@
       <c r="D54">
         <v>0</v>
       </c>
-      <c r="Q54" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>54</v>
       </c>
@@ -1706,11 +1544,8 @@
       <c r="D55">
         <v>1</v>
       </c>
-      <c r="Q55" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.35">
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>55</v>
       </c>
@@ -1723,11 +1558,8 @@
       <c r="D56">
         <v>0</v>
       </c>
-      <c r="Q56" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.35">
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>56</v>
       </c>
@@ -1740,11 +1572,8 @@
       <c r="D57">
         <v>1</v>
       </c>
-      <c r="Q57" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.35">
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>57</v>
       </c>
@@ -1757,11 +1586,8 @@
       <c r="D58">
         <v>0</v>
       </c>
-      <c r="Q58" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.35">
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>58</v>
       </c>
@@ -1774,11 +1600,8 @@
       <c r="D59">
         <v>0</v>
       </c>
-      <c r="Q59" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.35">
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>59</v>
       </c>
@@ -1791,11 +1614,8 @@
       <c r="D60">
         <v>0</v>
       </c>
-      <c r="Q60" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.35">
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>60</v>
       </c>
@@ -1808,11 +1628,8 @@
       <c r="D61">
         <v>1</v>
       </c>
-      <c r="Q61" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.35">
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>61</v>
       </c>
@@ -1825,11 +1642,8 @@
       <c r="D62">
         <v>0</v>
       </c>
-      <c r="Q62" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.35">
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>62</v>
       </c>
@@ -1842,11 +1656,8 @@
       <c r="D63">
         <v>0</v>
       </c>
-      <c r="Q63" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.35">
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>63</v>
       </c>
@@ -1859,11 +1670,8 @@
       <c r="D64">
         <v>0</v>
       </c>
-      <c r="Q64" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.35">
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>64</v>
       </c>
@@ -1876,11 +1684,8 @@
       <c r="D65">
         <v>0</v>
       </c>
-      <c r="Q65" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.35">
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>65</v>
       </c>
@@ -1893,11 +1698,8 @@
       <c r="D66">
         <v>0</v>
       </c>
-      <c r="Q66" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.35">
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>66</v>
       </c>
@@ -1910,11 +1712,8 @@
       <c r="D67">
         <v>0</v>
       </c>
-      <c r="Q67" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.35">
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>67</v>
       </c>
@@ -1927,11 +1726,8 @@
       <c r="D68">
         <v>1</v>
       </c>
-      <c r="Q68" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.35">
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>68</v>
       </c>
@@ -1944,11 +1740,8 @@
       <c r="D69">
         <v>0</v>
       </c>
-      <c r="Q69" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.35">
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>69</v>
       </c>
@@ -1961,11 +1754,8 @@
       <c r="D70">
         <v>0</v>
       </c>
-      <c r="Q70" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.35">
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>70</v>
       </c>
@@ -1978,11 +1768,8 @@
       <c r="D71">
         <v>0</v>
       </c>
-      <c r="Q71" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.35">
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>71</v>
       </c>
@@ -1995,11 +1782,8 @@
       <c r="D72">
         <v>0</v>
       </c>
-      <c r="Q72" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.35">
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>72</v>
       </c>
@@ -2012,11 +1796,8 @@
       <c r="D73">
         <v>0</v>
       </c>
-      <c r="Q73" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.35">
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>73</v>
       </c>
@@ -2029,11 +1810,8 @@
       <c r="D74">
         <v>0</v>
       </c>
-      <c r="Q74" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.35">
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>74</v>
       </c>
@@ -2046,11 +1824,8 @@
       <c r="D75">
         <v>0</v>
       </c>
-      <c r="Q75" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.35">
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>75</v>
       </c>
@@ -2063,11 +1838,8 @@
       <c r="D76">
         <v>1</v>
       </c>
-      <c r="Q76" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.35">
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>76</v>
       </c>
@@ -2080,11 +1852,8 @@
       <c r="D77">
         <v>0</v>
       </c>
-      <c r="Q77" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.35">
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>77</v>
       </c>
@@ -2097,11 +1866,8 @@
       <c r="D78">
         <v>0</v>
       </c>
-      <c r="Q78" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.35">
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>78</v>
       </c>
@@ -2114,11 +1880,8 @@
       <c r="D79">
         <v>0</v>
       </c>
-      <c r="Q79" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.35">
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>79</v>
       </c>
@@ -2131,11 +1894,8 @@
       <c r="D80">
         <v>0</v>
       </c>
-      <c r="Q80" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.35">
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>80</v>
       </c>
@@ -2148,11 +1908,8 @@
       <c r="D81">
         <v>0</v>
       </c>
-      <c r="Q81" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.35">
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>81</v>
       </c>
@@ -2165,11 +1922,8 @@
       <c r="D82">
         <v>0</v>
       </c>
-      <c r="Q82" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.35">
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>82</v>
       </c>
@@ -2182,11 +1936,8 @@
       <c r="D83">
         <v>1</v>
       </c>
-      <c r="Q83" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.35">
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>83</v>
       </c>
@@ -2199,11 +1950,8 @@
       <c r="D84">
         <v>1</v>
       </c>
-      <c r="Q84" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.35">
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>84</v>
       </c>
@@ -2216,11 +1964,8 @@
       <c r="D85">
         <v>0</v>
       </c>
-      <c r="Q85" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.35">
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>85</v>
       </c>
@@ -2233,11 +1978,8 @@
       <c r="D86">
         <v>0</v>
       </c>
-      <c r="Q86" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.35">
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>86</v>
       </c>
@@ -2250,11 +1992,8 @@
       <c r="D87">
         <v>0</v>
       </c>
-      <c r="Q87" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.35">
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>87</v>
       </c>
@@ -2267,11 +2006,8 @@
       <c r="D88">
         <v>0</v>
       </c>
-      <c r="Q88" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.35">
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>88</v>
       </c>
@@ -2284,11 +2020,8 @@
       <c r="D89">
         <v>0</v>
       </c>
-      <c r="Q89" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.35">
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>89</v>
       </c>
@@ -2301,11 +2034,8 @@
       <c r="D90">
         <v>0</v>
       </c>
-      <c r="Q90" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.35">
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>90</v>
       </c>
@@ -2318,11 +2048,8 @@
       <c r="D91">
         <v>0</v>
       </c>
-      <c r="Q91" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.35">
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>91</v>
       </c>
@@ -2335,11 +2062,8 @@
       <c r="D92">
         <v>1</v>
       </c>
-      <c r="Q92" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.35">
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>92</v>
       </c>
@@ -2352,11 +2076,8 @@
       <c r="D93">
         <v>0</v>
       </c>
-      <c r="Q93" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.35">
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>93</v>
       </c>
@@ -2369,11 +2090,8 @@
       <c r="D94">
         <v>0</v>
       </c>
-      <c r="Q94" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.35">
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>94</v>
       </c>
@@ -2386,11 +2104,8 @@
       <c r="D95">
         <v>0</v>
       </c>
-      <c r="Q95" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.35">
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>95</v>
       </c>
@@ -2403,11 +2118,8 @@
       <c r="D96">
         <v>0</v>
       </c>
-      <c r="Q96" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.35">
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>96</v>
       </c>
@@ -2420,11 +2132,8 @@
       <c r="D97">
         <v>0</v>
       </c>
-      <c r="Q97" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.35">
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>97</v>
       </c>
@@ -2437,11 +2146,8 @@
       <c r="D98">
         <v>0</v>
       </c>
-      <c r="Q98" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.35">
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>98</v>
       </c>
@@ -2454,11 +2160,8 @@
       <c r="D99">
         <v>0</v>
       </c>
-      <c r="Q99" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.35">
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>99</v>
       </c>
@@ -2471,11 +2174,8 @@
       <c r="D100">
         <v>0</v>
       </c>
-      <c r="Q100" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.35">
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>100</v>
       </c>
@@ -2488,11 +2188,8 @@
       <c r="D101">
         <v>0</v>
       </c>
-      <c r="Q101" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.35">
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>101</v>
       </c>
@@ -2505,11 +2202,8 @@
       <c r="D102">
         <v>0</v>
       </c>
-      <c r="Q102" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.35">
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>102</v>
       </c>
@@ -2522,11 +2216,8 @@
       <c r="D103">
         <v>1</v>
       </c>
-      <c r="Q103" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.35">
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>103</v>
       </c>
@@ -2539,11 +2230,8 @@
       <c r="D104">
         <v>0</v>
       </c>
-      <c r="Q104" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.35">
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>104</v>
       </c>
@@ -2556,11 +2244,8 @@
       <c r="D105">
         <v>0</v>
       </c>
-      <c r="Q105" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.35">
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>105</v>
       </c>
@@ -2573,11 +2258,8 @@
       <c r="D106">
         <v>0</v>
       </c>
-      <c r="Q106" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.35">
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>106</v>
       </c>
@@ -2590,11 +2272,8 @@
       <c r="D107">
         <v>0</v>
       </c>
-      <c r="Q107" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.35">
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>107</v>
       </c>
@@ -2607,11 +2286,8 @@
       <c r="D108">
         <v>0</v>
       </c>
-      <c r="Q108" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.35">
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>108</v>
       </c>
@@ -2624,11 +2300,8 @@
       <c r="D109">
         <v>0</v>
       </c>
-      <c r="Q109" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.35">
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>109</v>
       </c>
@@ -2641,11 +2314,8 @@
       <c r="D110">
         <v>0</v>
       </c>
-      <c r="Q110" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.35">
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>110</v>
       </c>
@@ -2658,11 +2328,8 @@
       <c r="D111">
         <v>1</v>
       </c>
-      <c r="Q111" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.35">
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>111</v>
       </c>
@@ -2675,11 +2342,8 @@
       <c r="D112">
         <v>0</v>
       </c>
-      <c r="Q112" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.35">
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>112</v>
       </c>
@@ -2692,11 +2356,8 @@
       <c r="D113">
         <v>1</v>
       </c>
-      <c r="Q113" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.35">
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>113</v>
       </c>
@@ -2709,11 +2370,8 @@
       <c r="D114">
         <v>0</v>
       </c>
-      <c r="Q114" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.35">
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>114</v>
       </c>
@@ -2726,11 +2384,8 @@
       <c r="D115">
         <v>0</v>
       </c>
-      <c r="Q115" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.35">
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>115</v>
       </c>
@@ -2743,11 +2398,8 @@
       <c r="D116">
         <v>0</v>
       </c>
-      <c r="Q116" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.35">
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>116</v>
       </c>
@@ -2760,11 +2412,8 @@
       <c r="D117">
         <v>0</v>
       </c>
-      <c r="Q117" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.35">
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>117</v>
       </c>

--- a/results/reports/Annotations.xlsx
+++ b/results/reports/Annotations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ituniversity-my.sharepoint.com/personal/markk_itu_dk/Documents/DS Project/PreliminaryProjectInDataScience2026/results/reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="315" documentId="11_F25DC773A252ABDACC10489E011E5EF45ADE58EB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CB2D404B-5710-499E-AC8D-4E8C0CBCA0CF}"/>
+  <xr:revisionPtr revIDLastSave="342" documentId="11_F25DC773A252ABDACC10489E011E5EF45ADE58EB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EC09B8C5-8CA0-4927-A485-AE3A052C0245}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="5430" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19110" yWindow="0" windowWidth="19380" windowHeight="20890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -740,8 +740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1:Q1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="F110" sqref="F110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -951,7 +951,7 @@
         <v>20</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>23</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -1063,7 +1063,7 @@
         <v>28</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -1133,7 +1133,7 @@
         <v>33</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -1161,7 +1161,7 @@
         <v>35</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -1175,7 +1175,7 @@
         <v>36</v>
       </c>
       <c r="C29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>42</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -1301,7 +1301,7 @@
         <v>45</v>
       </c>
       <c r="C38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D38">
         <v>1</v>
@@ -1371,7 +1371,7 @@
         <v>50</v>
       </c>
       <c r="C43">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>55</v>
       </c>
       <c r="C48">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -1469,7 +1469,7 @@
         <v>57</v>
       </c>
       <c r="C50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -1483,7 +1483,7 @@
         <v>58</v>
       </c>
       <c r="C51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         <v>61</v>
       </c>
       <c r="C54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -1553,7 +1553,7 @@
         <v>63</v>
       </c>
       <c r="C56">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -1833,7 +1833,7 @@
         <v>83</v>
       </c>
       <c r="C76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D76">
         <v>1</v>
@@ -1847,7 +1847,7 @@
         <v>84</v>
       </c>
       <c r="C77">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D77">
         <v>0</v>
@@ -2029,7 +2029,7 @@
         <v>97</v>
       </c>
       <c r="C90">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D90">
         <v>0</v>
@@ -2057,7 +2057,7 @@
         <v>99</v>
       </c>
       <c r="C92">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D92">
         <v>1</v>
@@ -2085,7 +2085,7 @@
         <v>101</v>
       </c>
       <c r="C94">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D94">
         <v>0</v>
@@ -2099,7 +2099,7 @@
         <v>102</v>
       </c>
       <c r="C95">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D95">
         <v>0</v>
@@ -2113,7 +2113,7 @@
         <v>103</v>
       </c>
       <c r="C96">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D96">
         <v>0</v>
@@ -2169,7 +2169,7 @@
         <v>107</v>
       </c>
       <c r="C100">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D100">
         <v>0</v>
@@ -2183,7 +2183,7 @@
         <v>108</v>
       </c>
       <c r="C101">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D101">
         <v>0</v>
@@ -2351,7 +2351,7 @@
         <v>120</v>
       </c>
       <c r="C113">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D113">
         <v>1</v>
@@ -2379,7 +2379,7 @@
         <v>122</v>
       </c>
       <c r="C115">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D115">
         <v>0</v>
@@ -2407,7 +2407,7 @@
         <v>124</v>
       </c>
       <c r="C117">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D117">
         <v>0</v>
